--- a/data/concerns.xlsx
+++ b/data/concerns.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w1mug\Desktop\naga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CD9310-D3A4-4E56-BCF3-11F10C994832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39159DA7-B47A-4A48-915F-B8968D9997D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2102345F-8385-44E1-A8F1-132C38DD5F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,43 +36,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Products</t>
   </si>
   <si>
+    <t>Concerns</t>
+  </si>
+  <si>
     <t>Rava</t>
   </si>
   <si>
+    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Packaging Preference, Packaging Preference, Customer Demand / Pull, Retailer Margin Advantage, Regional Taste / Cultural Fit
+</t>
+  </si>
+  <si>
     <t>Maida</t>
   </si>
   <si>
     <t>Kadalai Maavu</t>
   </si>
   <si>
+    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Customer Demand / Pull, Regional Taste / Cultural Fit, Retailer Margin Advantage, Packaging Preference, Packaging Preference
+</t>
+  </si>
+  <si>
     <t>Rise Flour</t>
   </si>
   <si>
+    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Customer Demand / Pull, Regional Taste / Cultural Fit, Retailer Margin Advantage, Packaging Preference, Packaging Preference
+</t>
+  </si>
+  <si>
     <t>Gulab Jamun Mix</t>
   </si>
   <si>
-    <t>Concerns</t>
-  </si>
-  <si>
-    <t>Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Product Package Size,Product Package Size,Product Package Size,Product Package Size,Product Package Size,Product Package Size,Product Package Size,Product Package Size, Other factors, Other factors, Other factors, Other factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size, Product Package Size,  Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, </t>
-  </si>
-  <si>
-    <t>Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Other factors, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Discount Concern, Discount Concern, Discount Concern, Discount Concern, Discount Concern</t>
+    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Customer Demand / Pull
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,62 +446,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA690E6-0EA9-45A2-89E1-35136BEEA385}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="106.5">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="106.5">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="106.5">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="5" spans="1:2" ht="106.5">
+      <c r="A5" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="76.5">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/concerns.xlsx
+++ b/data/concerns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w1mug\Desktop\naga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39159DA7-B47A-4A48-915F-B8968D9997D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606E2FA-1276-4C6F-AB93-0066023C7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2102345F-8385-44E1-A8F1-132C38DD5F74}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Products</t>
   </si>
@@ -47,25 +45,13 @@
     <t>Rava</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Packaging Preference, Packaging Preference, Customer Demand / Pull, Retailer Margin Advantage, Regional Taste / Cultural Fit
-</t>
-  </si>
-  <si>
     <t>Maida</t>
   </si>
   <si>
     <t>Kadalai Maavu</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Customer Demand / Pull, Regional Taste / Cultural Fit, Retailer Margin Advantage, Packaging Preference, Packaging Preference
-</t>
-  </si>
-  <si>
     <t>Rise Flour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Customer Demand / Pull, Regional Taste / Cultural Fit, Retailer Margin Advantage, Packaging Preference, Packaging Preference
-</t>
   </si>
   <si>
     <t>Gulab Jamun Mix</t>
@@ -73,13 +59,27 @@
   <si>
     <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Customer Demand / Pull
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Packing Preference, Packing Preference, Customer Demand / Pull, Retailer Margin Advantage, Regional Taste / Cultural Fit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Customer Demand / Pull, Regional Taste / Cultural Fit, Retailer Margin Advantage, Packing Preference, Packing Preference
+</t>
+  </si>
+  <si>
+    <t>Price Concern, Price Concern, Price Concern, Price Concern, Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Customer Demand / Pull, Customer Demand / Pull, Packaging Preference, Retailer Margin Advantage, Regional Taste / Cultural Fit, Local Brand Preference</t>
+  </si>
+  <si>
+    <t>Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Customer Demand / Pull, Customer Demand / Pull, Packaging Preference, Packaging Preference, Local Brand Preference, Retailer Margin Advantage, Regional Taste / Cultural Fit, Regional Taste / Cultural Fit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,17 +446,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA690E6-0EA9-45A2-89E1-35136BEEA385}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.88671875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,44 +464,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="106.5">
+    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="106.5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="106.5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="106.5">
-      <c r="A5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="76.5">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/concerns.xlsx
+++ b/data/concerns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w1mug\Desktop\naga\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606E2FA-1276-4C6F-AB93-0066023C7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC3031-0179-45E2-B01B-AFEBA9090D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2102345F-8385-44E1-A8F1-132C38DD5F74}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2102345F-8385-44E1-A8F1-132C38DD5F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,22 +57,19 @@
     <t>Gulab Jamun Mix</t>
   </si>
   <si>
-    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Customer Demand / Pull
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Packing Preference, Packing Preference, Customer Demand / Pull, Retailer Margin Advantage, Regional Taste / Cultural Fit
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Concern, Price Concern, Price Concern, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Promotions &amp; Schemes, Promotions &amp; Schemes, Availability &amp; Supply Strength, Customer Demand / Pull, Regional Taste / Cultural Fit, Retailer Margin Advantage, Packing Preference, Packing Preference
-</t>
-  </si>
-  <si>
-    <t>Price Concern, Price Concern, Price Concern, Price Concern, Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Customer Demand / Pull, Customer Demand / Pull, Packaging Preference, Retailer Margin Advantage, Regional Taste / Cultural Fit, Local Brand Preference</t>
-  </si>
-  <si>
-    <t>Promotions &amp; Schemes, Promotions &amp; Schemes, Promotions &amp; Schemes, Price Concern, Price Concern, Brand Loyalty / Trust, Brand Loyalty / Trust, Taste &amp; Quality Preference, Taste &amp; Quality Preference, Availability &amp; Supply Strength, Availability &amp; Supply Strength, Customer Demand / Pull, Customer Demand / Pull, Packaging Preference, Packaging Preference, Local Brand Preference, Retailer Margin Advantage, Regional Taste / Cultural Fit, Regional Taste / Cultural Fit</t>
+    <t>Price Concern – 260, Brand Loyalty / Trust – 190, Taste &amp; Quality Preference – 170, Promotions &amp; Schemes – 150, Customer Demand – 110, Availability &amp; Supply Strength – 70, Local Brand Preference – 30, Packing Preference – 20</t>
+  </si>
+  <si>
+    <t>Promotions &amp; Schemes – 240, Price Concern – 220, Brand Loyalty / Trust – 180, Taste &amp; Quality Preference – 160, Customer Demand – 120, Availability &amp; Supply Strength – 50, Local Brand Preference – 20, Packing Preference – 10</t>
+  </si>
+  <si>
+    <t>Brand Loyalty / Trust – 250, Price Concern – 230, Taste &amp; Quality Preference – 180, Promotions &amp; Schemes – 160, Customer Demand – 100, Availability &amp; Supply Strength – 50, Local Brand Preference – 20, Packing Preference – 10</t>
+  </si>
+  <si>
+    <t>Price Concern – 280, Taste &amp; Quality Preference – 210, Promotions &amp; Schemes – 170, Brand Loyalty / Trust – 150, Customer Demand – 110, Availability &amp; Supply Strength – 50, Local Brand Preference – 20, Packing Preference – 10</t>
+  </si>
+  <si>
+    <t>Promotions &amp; Schemes – 260, Price Concern – 240, Brand Loyalty / Trust – 190, Taste &amp; Quality Preference – 160, Customer Demand – 100, Availability &amp; Supply Strength – 30, Local Brand Preference – 10, Packing Preference – 10</t>
   </si>
 </sst>
 </file>
@@ -446,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA690E6-0EA9-45A2-89E1-35136BEEA385}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,15 +461,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -480,7 +477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -488,20 +485,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
